--- a/Project1/ATM2_Forecast.xlsx
+++ b/Project1/ATM2_Forecast.xlsx
@@ -366,157 +366,157 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>241.6889578103088</v>
+        <v>67.70498517629926</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>275.5378770825114</v>
+        <v>74.06528886199943</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>17.85677026041744</v>
+        <v>10.80684229112445</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1.593552218524771</v>
+        <v>1.559716874977024</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>441.0542564535935</v>
+        <v>102.1121821132428</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>382.169595715885</v>
+        <v>92.6128275790181</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>249.5010712396549</v>
+        <v>69.19752092278694</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>241.7656471009699</v>
+        <v>67.71971308342761</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>275.6079398463374</v>
+        <v>74.07817858317883</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>17.86997329754341</v>
+        <v>10.81269996382116</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1.59652001639545</v>
+        <v>1.562369777399807</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>441.1100028672469</v>
+        <v>102.1209696671498</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>382.2133851146924</v>
+        <v>92.62006342872628</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>249.5305039977473</v>
+        <v>69.20311496761167</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>241.7902347659716</v>
+        <v>67.72443473361822</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>275.6304024391411</v>
+        <v>74.08231088693229</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17.87420702604199</v>
+        <v>10.81457801806584</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1.597472067975465</v>
+        <v>1.563220547569361</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>441.1278747113216</v>
+        <v>102.1237868076719</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>382.2274235773693</v>
+        <v>92.62238311528853</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>249.5399398702566</v>
+        <v>69.20490832135586</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>241.7981172994334</v>
+        <v>67.7259484091591</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>275.6376036450878</v>
+        <v>74.08363562471176</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>17.87556437928075</v>
+        <v>10.81518010168938</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1.597777340045289</v>
+        <v>1.563493316887473</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>441.1336040994423</v>
+        <v>102.1246899237297</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>382.2319240469489</v>
+        <v>92.6231267576533</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>249.542964836374</v>
+        <v>69.20548323267789</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>241.8006442890068</v>
+        <v>67.72643366118648</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>275.6399122086483</v>
+        <v>74.08406030692319</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>17.87599952764208</v>
+        <v>10.81537311821267</v>
       </c>
     </row>
   </sheetData>
